--- a/data/final_data_from_lida/Data_for_Figures_Climate_Smart_Small_Island_Fisheries_August2021.xlsx
+++ b/data/final_data_from_lida/Data_for_Figures_Climate_Smart_Small_Island_Fisheries_August2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lidateneva/Documents/Oddah Stuff/_Publications/In_prep/Seafood_Security_Pacific/2021/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/sids_climate/data/final_data_from_lida/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67076C74-C4ED-F44A-962C-5858197EC5B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A1DBA9D-31BF-F447-86FD-758A180A81DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="2860" windowWidth="33600" windowHeight="18560" xr2:uid="{4D740CD5-0A9C-674B-B41A-B9D28E20694D}"/>
+    <workbookView xWindow="560" yWindow="2140" windowWidth="33600" windowHeight="18560" activeTab="1" xr2:uid="{4D740CD5-0A9C-674B-B41A-B9D28E20694D}"/>
   </bookViews>
   <sheets>
     <sheet name="Figure1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,16 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -143,9 +153,6 @@
     <t>Samoa</t>
   </si>
   <si>
-    <t>SolomonIslands</t>
-  </si>
-  <si>
     <t>Timor-Leste</t>
   </si>
   <si>
@@ -303,6 +310,9 @@
   </si>
   <si>
     <t>% 2046-2050 increase in seafood demand High</t>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
   </si>
 </sst>
 </file>
@@ -806,10 +816,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CFBAC68-C23F-B540-AE95-69DBA450F556}">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -822,35 +832,35 @@
     <col min="10" max="10" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="68" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="H1" s="20" t="s">
+      <c r="I1" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="J1" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="20" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -885,7 +895,7 @@
         <v>13.199517701008908</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="22" t="s">
         <v>2</v>
@@ -918,7 +928,7 @@
         <v>53.121563844245536</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="22" t="s">
         <v>3</v>
@@ -951,7 +961,7 @@
         <v>35.381159135559926</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="22" t="s">
         <v>4</v>
@@ -984,7 +994,7 @@
         <v>30.557298874531064</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="22" t="s">
         <v>5</v>
@@ -1017,7 +1027,7 @@
         <v>11.579920318725106</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="22" t="s">
         <v>6</v>
@@ -1050,7 +1060,7 @@
         <v>33.889972656249981</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="22" t="s">
         <v>7</v>
@@ -1082,8 +1092,9 @@
         <f t="shared" si="2"/>
         <v>65.548571096318824</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="22" t="s">
         <v>8</v>
@@ -1116,10 +1127,10 @@
         <v>30.471106972945361</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="22" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="C10" s="23">
         <v>21308</v>
@@ -1149,10 +1160,10 @@
         <v>63.115650610099486</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="21">
         <v>472</v>
@@ -1182,10 +1193,10 @@
         <v>70.341826271186392</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="21">
         <v>420</v>
@@ -1215,10 +1226,10 @@
         <v>22.521366666666644</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="25">
         <v>9691</v>
@@ -1248,12 +1259,12 @@
         <v>69.767459250851289</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="22" t="s">
         <v>13</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>14</v>
       </c>
       <c r="C14" s="26">
         <v>4904</v>
@@ -1283,10 +1294,10 @@
         <v>29.746505342577461</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="21"/>
       <c r="B15" s="22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" s="23">
         <v>13496</v>
@@ -1316,10 +1327,10 @@
         <v>29.193037551867228</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="21"/>
       <c r="B16" s="22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="23">
         <v>5055</v>
@@ -1352,7 +1363,7 @@
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="21"/>
       <c r="B17" s="22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" s="23">
         <v>99891</v>
@@ -1385,7 +1396,7 @@
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="21"/>
       <c r="B18" s="22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" s="23">
         <v>2386</v>
@@ -1418,7 +1429,7 @@
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="21"/>
       <c r="B19" s="22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="23">
         <v>119111</v>
@@ -1451,7 +1462,7 @@
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="21"/>
       <c r="B20" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="23">
         <v>4130</v>
@@ -1484,7 +1495,7 @@
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="21"/>
       <c r="B21" s="22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" s="23">
         <v>36238</v>
@@ -1517,7 +1528,7 @@
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="21"/>
       <c r="B22" s="22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22" s="23">
         <v>75383</v>
@@ -1550,7 +1561,7 @@
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="21"/>
       <c r="B23" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" s="23">
         <v>1928</v>
@@ -1583,7 +1594,7 @@
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="21"/>
       <c r="B24" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24" s="23">
         <v>6155</v>
@@ -1616,7 +1627,7 @@
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="21"/>
       <c r="B25" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" s="23">
         <v>1865</v>
@@ -1649,7 +1660,7 @@
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="27"/>
       <c r="B26" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" s="25">
         <v>21262</v>
@@ -1681,10 +1692,10 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="28" t="s">
         <v>27</v>
-      </c>
-      <c r="B27" s="28" t="s">
-        <v>28</v>
       </c>
       <c r="C27" s="29">
         <v>22006</v>
@@ -1717,7 +1728,7 @@
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="21"/>
       <c r="B28" s="28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C28" s="29">
         <v>8794</v>
@@ -1750,7 +1761,7 @@
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="21"/>
       <c r="B29" s="28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C29" s="29">
         <v>21559</v>
@@ -1783,7 +1794,7 @@
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="21"/>
       <c r="B30" s="28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C30" s="29">
         <v>59774</v>
@@ -1816,7 +1827,7 @@
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="21"/>
       <c r="B31" s="28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C31" s="29">
         <v>27166</v>
@@ -1849,7 +1860,7 @@
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="21"/>
       <c r="B32" s="28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C32" s="29">
         <v>5754</v>
@@ -1882,7 +1893,7 @@
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
       <c r="B33" s="28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C33" s="29">
         <v>5771</v>
@@ -1932,8 +1943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36828AB0-B332-1C4A-A9BD-B4C7B34B2880}">
   <dimension ref="A1:X40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="W4" sqref="W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1961,82 +1972,82 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="119" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="H4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="9" t="s">
+      <c r="I4" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" s="9" t="s">
+      <c r="J4" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="K4" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="L4" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="M4" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="N4" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="O4" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="P4" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="P4" s="9" t="s">
+      <c r="Q4" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="Q4" s="9" t="s">
+      <c r="R4" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="R4" s="9" t="s">
+      <c r="S4" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="S4" s="9" t="s">
+      <c r="T4" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="T4" s="9" t="s">
-        <v>54</v>
-      </c>
       <c r="U4" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="V4" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="V4" s="9" t="s">
+      <c r="W4" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="W4" s="9" t="s">
+      <c r="X4" s="9" t="s">
         <v>53</v>
-      </c>
-      <c r="X4" s="9" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
@@ -2700,7 +2711,7 @@
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="C13" s="3">
         <v>33418.46802</v>
@@ -2782,7 +2793,7 @@
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14" s="3">
         <v>816.45661999999982</v>
@@ -2864,7 +2875,7 @@
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15" s="3">
         <v>470.71812666666665</v>
@@ -2946,7 +2957,7 @@
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" s="3">
         <v>15438.133472666665</v>
@@ -3027,10 +3038,10 @@
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="C17" s="3">
         <v>5748.6273599999995</v>
@@ -3111,7 +3122,7 @@
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" s="3">
         <v>15761.442507999998</v>
@@ -3192,7 +3203,7 @@
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19" s="3">
         <v>7437.4457519999996</v>
@@ -3273,7 +3284,7 @@
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20" s="3">
         <v>90531.626826666674</v>
@@ -3354,7 +3365,7 @@
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C21" s="3">
         <v>2376.8927720000002</v>
@@ -3435,7 +3446,7 @@
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22" s="3">
         <v>143985.12614666668</v>
@@ -3516,7 +3527,7 @@
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="3">
         <v>4224.7039206666668</v>
@@ -3597,7 +3608,7 @@
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C24" s="3">
         <v>45862.97041466667</v>
@@ -3678,7 +3689,7 @@
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C25" s="3">
         <v>73089.565369999997</v>
@@ -3759,7 +3770,7 @@
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B26" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C26" s="3">
         <v>2223.623896666667</v>
@@ -3840,7 +3851,7 @@
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B27" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C27" s="3">
         <v>6659.6320799999985</v>
@@ -3921,7 +3932,7 @@
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B28" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C28" s="3">
         <v>1870.5011433333336</v>
@@ -4003,7 +4014,7 @@
     <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" s="7"/>
       <c r="B29" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" s="3">
         <v>20066.098625333336</v>
@@ -4084,10 +4095,10 @@
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="8" t="s">
         <v>27</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>28</v>
       </c>
       <c r="C30" s="3">
         <v>26766.875933333336</v>
@@ -4168,7 +4179,7 @@
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B31" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C31" s="3">
         <v>11271.98365</v>
@@ -4249,7 +4260,7 @@
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B32" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C32" s="3">
         <v>36757.698973333332</v>
@@ -4330,7 +4341,7 @@
     </row>
     <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B33" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C33" s="3">
         <v>75130.363335999995</v>
@@ -4411,7 +4422,7 @@
     </row>
     <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B34" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C34" s="3">
         <v>26011.625210666669</v>
@@ -4492,7 +4503,7 @@
     </row>
     <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B35" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C35" s="3">
         <v>9782.531266666665</v>
@@ -4573,7 +4584,7 @@
     </row>
     <row r="36" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B36" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C36" s="3">
         <v>5896.8513253333322</v>
